--- a/测试用例/Wap端回归验证用例-测试环境.xlsx
+++ b/测试用例/Wap端回归验证用例-测试环境.xlsx
@@ -368,10 +368,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -408,7 +408,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,101 +428,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,6 +451,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -542,6 +519,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -564,13 +564,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,169 +618,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,11 +819,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,6 +873,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -881,32 +907,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -915,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,137 +927,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,6 +1126,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
@@ -1479,8 +1482,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1572,7 +1575,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:10">
@@ -1644,7 +1647,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:10">
@@ -1668,7 +1671,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:10">
@@ -1692,7 +1695,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:10">
@@ -1716,7 +1719,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:10">
@@ -1740,7 +1743,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:10">
@@ -1764,7 +1767,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:10">
@@ -1788,7 +1791,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:10">
@@ -1812,7 +1815,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:10">
@@ -1836,7 +1839,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:10">
@@ -1860,7 +1863,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:10">
@@ -1873,7 +1876,7 @@
       <c r="C16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="14" t="s">
         <v>59</v>
       </c>
@@ -1884,7 +1887,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:10">
@@ -1897,7 +1900,7 @@
       <c r="C17" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="21" t="s">
         <v>63</v>
       </c>
@@ -1908,7 +1911,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:10">
@@ -1932,7 +1935,7 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="43.2" spans="1:10">
@@ -1956,7 +1959,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:10">
@@ -1980,7 +1983,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="57.6" spans="1:10">
@@ -2004,7 +2007,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="72" spans="1:10">
@@ -2028,7 +2031,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="15.6" spans="1:10">
@@ -2131,8 +2134,8 @@
   <sheetPr/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2140,7 +2143,7 @@
     <col min="1" max="1" width="18.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="15.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="28.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="4" max="4" width="14.4444444444444" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
     <col min="6" max="6" width="9.22222222222222" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
@@ -2224,7 +2227,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="43.2" spans="1:10">
@@ -2296,7 +2299,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="43.2" spans="1:10">
@@ -2319,8 +2322,8 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="10">
-        <v>1</v>
+      <c r="J7" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="15.6" spans="1:10">
@@ -2344,7 +2347,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="15.6" spans="1:10">
@@ -2367,8 +2370,8 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="10">
-        <v>1</v>
+      <c r="J9" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15.6" spans="1:10">
@@ -2392,7 +2395,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="15.6" spans="1:10">
@@ -2415,8 +2418,8 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="10">
-        <v>1</v>
+      <c r="J11" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15.6" spans="1:10">
@@ -2440,11 +2443,11 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="15.6" spans="1:10">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -2463,8 +2466,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="10">
-        <v>1</v>
+      <c r="J13" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="15.6" spans="1:10">
@@ -2488,7 +2491,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15.6" spans="1:10">
@@ -2511,12 +2514,12 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="10">
-        <v>1</v>
+      <c r="J15" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="28.8" spans="1:10">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -2536,11 +2539,11 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="15.6" spans="1:10">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -2559,8 +2562,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="10">
-        <v>1</v>
+      <c r="J17" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="15.6" spans="1:10">
@@ -2573,7 +2576,7 @@
       <c r="C18" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="14" t="s">
         <v>95</v>
       </c>
@@ -2584,7 +2587,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="15.6" spans="1:10">
@@ -2597,7 +2600,7 @@
       <c r="C19" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="24"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="21" t="s">
         <v>63</v>
       </c>
@@ -2607,8 +2610,8 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="10">
-        <v>1</v>
+      <c r="J19" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="43.2" spans="1:10">
@@ -2632,7 +2635,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="43.2" spans="1:10">
@@ -2655,8 +2658,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="10">
-        <v>1</v>
+      <c r="J21" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="28.8" spans="1:10">
@@ -2680,7 +2683,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="57.6" spans="1:10">
@@ -2703,8 +2706,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="10">
-        <v>1</v>
+      <c r="J23" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="72" spans="1:10">
@@ -2728,7 +2731,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="15.6" spans="1:10">

--- a/测试用例/Wap端回归验证用例-测试环境.xlsx
+++ b/测试用例/Wap端回归验证用例-测试环境.xlsx
@@ -1482,8 +1482,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
